--- a/Ines/Dataschema_INES.xlsx
+++ b/Ines/Dataschema_INES.xlsx
@@ -388,7 +388,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Body Mass Index at baseline</t>
+          <t>Body Mass Index at baseline [kg/m²]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
